--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G285"/>
+  <dimension ref="A1:G398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4677,10 +4677,8 @@
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G174" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -4698,10 +4696,8 @@
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G175" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -4732,10 +4728,8 @@
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G177" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -4766,10 +4760,8 @@
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -4799,10 +4791,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G180" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -4832,10 +4822,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G181" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -4865,10 +4853,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -4894,10 +4880,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -4919,10 +4903,8 @@
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G184" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -4944,10 +4926,8 @@
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -4969,10 +4949,8 @@
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G186" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -4994,10 +4972,8 @@
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G187" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -5023,10 +4999,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G188" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="189">
@@ -5057,10 +5031,8 @@
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G190" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -5090,10 +5062,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G191" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -5119,10 +5089,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G192" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -5148,10 +5116,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G193" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -5173,10 +5139,8 @@
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -5206,10 +5170,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G195" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -5239,10 +5201,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G196" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -5268,10 +5228,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -5297,10 +5255,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -5326,10 +5282,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -5355,10 +5309,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -5384,10 +5336,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -5409,10 +5359,8 @@
       </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="203">
@@ -5434,10 +5382,8 @@
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -5459,10 +5405,8 @@
       </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G204" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -5480,10 +5424,8 @@
       </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G205" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="206">
@@ -5518,10 +5460,8 @@
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G207" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -5539,10 +5479,8 @@
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G208" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="209">
@@ -5560,10 +5498,8 @@
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -5581,10 +5517,8 @@
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -5602,10 +5536,8 @@
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -5635,10 +5567,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G212" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -5656,10 +5586,8 @@
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G213" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -5681,10 +5609,8 @@
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G214" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -5706,10 +5632,8 @@
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G215" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -5731,10 +5655,8 @@
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -5756,10 +5678,8 @@
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -5781,10 +5701,8 @@
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -5806,10 +5724,8 @@
       </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -5831,10 +5747,8 @@
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -5856,10 +5770,8 @@
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -5881,10 +5793,8 @@
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -5906,10 +5816,8 @@
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="224">
@@ -5931,10 +5839,8 @@
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -5952,10 +5858,8 @@
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G225" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -5985,10 +5889,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -6006,10 +5908,8 @@
       </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -6027,10 +5927,8 @@
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -6069,10 +5967,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -6098,10 +5994,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -6127,10 +6021,8 @@
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G232" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -6152,10 +6044,8 @@
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -6177,10 +6067,8 @@
       </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -6198,10 +6086,8 @@
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G235" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -6231,10 +6117,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -6252,10 +6136,8 @@
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -6277,10 +6159,8 @@
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -6298,10 +6178,8 @@
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G239" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="240">
@@ -6319,10 +6197,8 @@
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G240" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -6340,10 +6216,8 @@
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -6361,10 +6235,8 @@
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -6382,10 +6254,8 @@
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -6403,10 +6273,8 @@
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -6424,10 +6292,8 @@
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -6449,10 +6315,8 @@
       </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -6495,10 +6359,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G248" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -6528,10 +6390,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G249" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -6561,10 +6421,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G250" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -6594,10 +6452,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G251" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="252">
@@ -6623,10 +6479,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G252" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="253">
@@ -6656,10 +6510,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -6685,10 +6537,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -6714,10 +6564,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -6747,10 +6595,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -6776,10 +6622,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -6809,10 +6653,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G258" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -6838,10 +6680,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="260">
@@ -6867,10 +6707,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -6896,10 +6734,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="262">
@@ -6925,10 +6761,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="263">
@@ -6946,10 +6780,8 @@
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="264">
@@ -6971,10 +6803,8 @@
       </c>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="265">
@@ -6996,10 +6826,8 @@
       </c>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -7064,10 +6892,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -7085,10 +6911,8 @@
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="271">
@@ -7106,10 +6930,8 @@
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -7131,10 +6953,8 @@
       </c>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -7156,10 +6976,8 @@
       </c>
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -7181,10 +6999,8 @@
       </c>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="275">
@@ -7206,10 +7022,8 @@
       </c>
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -7248,10 +7062,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G277" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -7273,10 +7085,8 @@
       </c>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G278" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -7302,10 +7112,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="280">
@@ -7331,10 +7139,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="281">
@@ -7356,10 +7162,8 @@
       </c>
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="282">
@@ -7381,10 +7185,8 @@
       </c>
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="283">
@@ -7410,10 +7212,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="284">
@@ -7431,10 +7231,8 @@
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="285">
@@ -7456,7 +7254,2818 @@
       </c>
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr">
+      <c r="G285" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Saturday January 04 2025</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Fed Kugler Speech</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Sunday January 05 2025</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr"/>
+      <c r="C289" t="inlineStr"/>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Monday January 06 2025</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Fed Cook Speech</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>54.9</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>56.6</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Factory Orders MoMNOV</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Factory Orders ex TransportationNOV</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr"/>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>4.135%</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>4.117%</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr"/>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Total Vehicle SalesDEC</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>08:00 AM</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>$-77.5B</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>$-70B</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>ExportsNOV</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>$264B</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>ImportsNOV</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>$339.6B</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>$334B</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/04</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>ISM Services PMIDEC</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>JOLTs Job OpeningsNOV</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>7.65M</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>7.69M</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>ISM Services Business ActivityDEC</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>ISM Services EmploymentDEC</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>ISM Services New OrdersDEC</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>ISM Services PricesDEC</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>58.2</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>JOLTs Job QuitsNOV</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>3.326M</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>3.31M</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>42-Day Bill Auction</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>4.280%</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>10-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-1.442M</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr"/>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexDEC</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr"/>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="inlineStr"/>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>08:15 AM</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>ADP Employment ChangeDEC</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>143K</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Fed Waller Speech</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-1.178M</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr"/>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>7.717M</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr"/>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>0.323M</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" t="inlineStr"/>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr"/>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-0.142M</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>0.099M</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr"/>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>6.406M</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr"/>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-0.959M</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-0.416M</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>0.041M</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>4.195%</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>4.535%</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>02:00 PM</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>FOMC Minutes</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Consumer Credit ChangeNOV</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>$12.5B</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr"/>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Used Car Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr"/>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr"/>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Challenger Job CutsDEC</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>57.727K</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJAN/04</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsDEC/28</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>1844K</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr"/>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr"/>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>223.25K</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Fed Harker Speech</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr"/>
+      <c r="D348" t="inlineStr"/>
+      <c r="E348" t="inlineStr"/>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoMNOV</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr"/>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr"/>
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr"/>
+      <c r="D352" t="inlineStr"/>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr"/>
+      <c r="D353" t="inlineStr"/>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr"/>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr"/>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="inlineStr"/>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>12:40 PM</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr"/>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Fed Schmid Speech</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>01:35 PM</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Fed Bowman Speech</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr"/>
+      <c r="D358" t="inlineStr"/>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJAN/08</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Friday January 10 2025</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr"/>
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Non Farm PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr"/>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>200K</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr"/>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings MoMDEC</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr"/>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings YoY</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr"/>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Participation RateDEC</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr"/>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>62.8%</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Average Weekly HoursDEC</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr"/>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Government PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr"/>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>33K</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr"/>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Manufacturing PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr"/>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>22K</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Nonfarm Payrolls PrivateDEC</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr"/>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>U-6 Unemployment Rate</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr"/>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr"/>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr"/>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr"/>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr"/>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr"/>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions PrelJAN</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr"/>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr"/>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" t="inlineStr"/>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr"/>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" t="inlineStr"/>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr"/>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr"/>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Saturday January 11 2025</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr"/>
+      <c r="C379" t="inlineStr"/>
+      <c r="D379" t="inlineStr"/>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" t="inlineStr"/>
+      <c r="G379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr"/>
+      <c r="C380" t="inlineStr"/>
+      <c r="D380" t="inlineStr"/>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" t="inlineStr"/>
+      <c r="G380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr"/>
+      <c r="C381" t="inlineStr"/>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="inlineStr"/>
+      <c r="F381" t="inlineStr"/>
+      <c r="G381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsDEC</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr"/>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr"/>
+      <c r="D383" t="inlineStr"/>
+      <c r="E383" t="inlineStr"/>
+      <c r="F383" t="inlineStr"/>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr"/>
+      <c r="D384" t="inlineStr"/>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" t="inlineStr"/>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornDEC</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr"/>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" t="inlineStr"/>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr"/>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>0.342B</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr"/>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr"/>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr"/>
+      <c r="F387" t="inlineStr"/>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>02:00 PM</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementDEC</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr"/>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>$-367B</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr"/>
+      <c r="F388" t="inlineStr"/>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr"/>
+      <c r="C389" t="inlineStr"/>
+      <c r="D389" t="inlineStr"/>
+      <c r="E389" t="inlineStr"/>
+      <c r="F389" t="inlineStr"/>
+      <c r="G389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr"/>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Core PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr"/>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr"/>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Core PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>PPIDEC</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr"/>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>146.493</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr"/>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr"/>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr"/>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr"/>
+      <c r="F395" t="inlineStr"/>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr"/>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/11</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr"/>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>10:05 AM</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G398"/>
+  <dimension ref="A1:G511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7286,10 +7286,8 @@
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G287" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="288">
@@ -7307,10 +7305,8 @@
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G288" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="289">
@@ -7341,10 +7337,8 @@
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G290" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="291">
@@ -7375,10 +7369,8 @@
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G292" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="293">
@@ -7408,10 +7400,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="294">
@@ -7441,10 +7431,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G294" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="295">
@@ -7474,10 +7462,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G295" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -7503,10 +7489,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -7528,10 +7512,8 @@
         </is>
       </c>
       <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -7553,10 +7535,8 @@
       </c>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -7578,10 +7558,8 @@
       </c>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -7603,10 +7581,8 @@
       </c>
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -7632,10 +7608,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -7666,10 +7640,8 @@
       <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -7699,10 +7671,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G304" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="305">
@@ -7728,10 +7698,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G305" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -7757,10 +7725,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G306" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -7782,10 +7748,8 @@
       </c>
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="308">
@@ -7815,10 +7779,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G308" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -7848,10 +7810,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G309" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -7877,10 +7837,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -7906,10 +7864,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="312">
@@ -7935,10 +7891,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -7964,10 +7918,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -7993,10 +7945,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -8018,10 +7968,8 @@
       </c>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -8043,10 +7991,8 @@
       </c>
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -8068,10 +8014,8 @@
       </c>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G317" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="318">
@@ -8089,10 +8033,8 @@
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -8127,10 +8069,8 @@
       </c>
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -8148,10 +8088,8 @@
       <c r="D321" t="inlineStr"/>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -8169,10 +8107,8 @@
       <c r="D322" t="inlineStr"/>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -8190,10 +8126,8 @@
       <c r="D323" t="inlineStr"/>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -8211,10 +8145,8 @@
       <c r="D324" t="inlineStr"/>
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -8244,10 +8176,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -8265,10 +8195,8 @@
       <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr"/>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G326" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -8290,10 +8218,8 @@
       </c>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G327" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="328">
@@ -8315,10 +8241,8 @@
       </c>
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G328" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -8340,10 +8264,8 @@
       </c>
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -8365,10 +8287,8 @@
       </c>
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="331">
@@ -8390,10 +8310,8 @@
       </c>
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -8415,10 +8333,8 @@
       </c>
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
-      <c r="G332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -8440,10 +8356,8 @@
       </c>
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="334">
@@ -8465,10 +8379,8 @@
       </c>
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
-      <c r="G334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -8490,10 +8402,8 @@
       </c>
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
-      <c r="G335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -8515,10 +8425,8 @@
       </c>
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
-      <c r="G336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="337">
@@ -8540,10 +8448,8 @@
       </c>
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr"/>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -8561,10 +8467,8 @@
       <c r="D338" t="inlineStr"/>
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr"/>
-      <c r="G338" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G338" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -8594,10 +8498,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="G339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="340">
@@ -8615,10 +8517,8 @@
       </c>
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr"/>
-      <c r="G340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -8636,10 +8536,8 @@
       </c>
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
-      <c r="G341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -8678,10 +8576,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="G343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -8707,10 +8603,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="G344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -8736,10 +8630,8 @@
         </is>
       </c>
       <c r="F345" t="inlineStr"/>
-      <c r="G345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="346">
@@ -8761,10 +8653,8 @@
       </c>
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
-      <c r="G346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -8786,10 +8676,8 @@
       </c>
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr"/>
-      <c r="G347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -8807,10 +8695,8 @@
       <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr"/>
-      <c r="G348" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G348" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -8840,10 +8726,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="G349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -8861,10 +8745,8 @@
       <c r="D350" t="inlineStr"/>
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr"/>
-      <c r="G350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="351">
@@ -8886,10 +8768,8 @@
         </is>
       </c>
       <c r="F351" t="inlineStr"/>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="352">
@@ -8907,10 +8787,8 @@
       <c r="D352" t="inlineStr"/>
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
-      <c r="G352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="353">
@@ -8928,10 +8806,8 @@
       <c r="D353" t="inlineStr"/>
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr"/>
-      <c r="G353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="354">
@@ -8949,10 +8825,8 @@
       <c r="D354" t="inlineStr"/>
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr"/>
-      <c r="G354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="355">
@@ -8970,10 +8844,8 @@
       <c r="D355" t="inlineStr"/>
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr"/>
-      <c r="G355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="356">
@@ -8991,10 +8863,8 @@
       <c r="D356" t="inlineStr"/>
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr"/>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G356" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -9012,10 +8882,8 @@
       <c r="D357" t="inlineStr"/>
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
-      <c r="G357" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G357" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="358">
@@ -9033,10 +8901,8 @@
       <c r="D358" t="inlineStr"/>
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr"/>
-      <c r="G358" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G358" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="359">
@@ -9058,10 +8924,8 @@
       </c>
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr"/>
-      <c r="G359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -9104,10 +8968,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G361" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -9137,10 +8999,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G362" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -9170,10 +9030,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G363" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="364">
@@ -9203,10 +9061,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G364" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="365">
@@ -9232,10 +9088,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G365" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="366">
@@ -9265,10 +9119,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -9294,10 +9146,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="368">
@@ -9323,10 +9173,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -9356,10 +9204,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="370">
@@ -9385,10 +9231,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="371">
@@ -9418,10 +9262,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G371" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -9447,10 +9289,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="373">
@@ -9476,10 +9316,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -9505,10 +9343,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -9534,10 +9370,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="376">
@@ -9555,10 +9389,8 @@
       <c r="D376" t="inlineStr"/>
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr"/>
-      <c r="G376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -9580,10 +9412,8 @@
       </c>
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr"/>
-      <c r="G377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -9605,10 +9435,8 @@
       </c>
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr"/>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -9673,10 +9501,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="G382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="383">
@@ -9694,10 +9520,8 @@
       <c r="D383" t="inlineStr"/>
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="inlineStr"/>
-      <c r="G383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -9715,10 +9539,8 @@
       <c r="D384" t="inlineStr"/>
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr"/>
-      <c r="G384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -9740,10 +9562,8 @@
       </c>
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="inlineStr"/>
-      <c r="G385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="386">
@@ -9765,10 +9585,8 @@
       </c>
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr"/>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="387">
@@ -9790,10 +9608,8 @@
       </c>
       <c r="E387" t="inlineStr"/>
       <c r="F387" t="inlineStr"/>
-      <c r="G387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="388">
@@ -9815,10 +9631,8 @@
       </c>
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr"/>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G388" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -9857,10 +9671,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G390" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G390" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -9882,10 +9694,8 @@
       </c>
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="inlineStr"/>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="392">
@@ -9911,10 +9721,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G392" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="393">
@@ -9940,10 +9748,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="G393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="394">
@@ -9965,10 +9771,8 @@
       </c>
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr"/>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="395">
@@ -9990,10 +9794,8 @@
       </c>
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="inlineStr"/>
-      <c r="G395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -10019,10 +9821,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="397">
@@ -10040,10 +9840,8 @@
       <c r="D397" t="inlineStr"/>
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="inlineStr"/>
-      <c r="G397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="398">
@@ -10065,7 +9863,2818 @@
       </c>
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr"/>
-      <c r="G398" t="inlineStr">
+      <c r="G398" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Saturday January 04 2025</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr"/>
+      <c r="C399" t="inlineStr"/>
+      <c r="D399" t="inlineStr"/>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr"/>
+      <c r="G399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="inlineStr"/>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr"/>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Fed Kugler Speech</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr"/>
+      <c r="D401" t="inlineStr"/>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" t="inlineStr"/>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Sunday January 05 2025</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr"/>
+      <c r="C402" t="inlineStr"/>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr"/>
+      <c r="D403" t="inlineStr"/>
+      <c r="E403" t="inlineStr"/>
+      <c r="F403" t="inlineStr"/>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Monday January 06 2025</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr"/>
+      <c r="C404" t="inlineStr"/>
+      <c r="D404" t="inlineStr"/>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Fed Cook Speech</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr"/>
+      <c r="D405" t="inlineStr"/>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" t="inlineStr"/>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr"/>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>54.9</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>56.6</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Factory Orders MoMNOV</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr"/>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Factory Orders ex TransportationNOV</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr"/>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr"/>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>4.135%</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr"/>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>4.117%</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr"/>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr"/>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Total Vehicle SalesDEC</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr"/>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr"/>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="inlineStr"/>
+      <c r="E415" t="inlineStr"/>
+      <c r="F415" t="inlineStr"/>
+      <c r="G415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>08:00 AM</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr"/>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>$-77.5B</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>$-70B</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>ExportsNOV</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>$264B</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>ImportsNOV</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr"/>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>$339.6B</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr"/>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>$334B</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/04</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr"/>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr"/>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>ISM Services PMIDEC</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>JOLTs Job OpeningsNOV</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>7.65M</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>7.69M</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>ISM Services Business ActivityDEC</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>ISM Services EmploymentDEC</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>ISM Services New OrdersDEC</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>ISM Services PricesDEC</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>58.2</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>JOLTs Job QuitsNOV</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>3.326M</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>3.31M</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>42-Day Bill Auction</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>4.280%</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr"/>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>10-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr"/>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr"/>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>-1.442M</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr"/>
+      <c r="F430" t="inlineStr"/>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr"/>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexDEC</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr"/>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" t="inlineStr"/>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr"/>
+      <c r="C432" t="inlineStr"/>
+      <c r="D432" t="inlineStr"/>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="inlineStr"/>
+      <c r="G432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr"/>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr"/>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr"/>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="inlineStr"/>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>08:15 AM</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>ADP Employment ChangeDEC</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>143K</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Fed Waller Speech</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr"/>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>-1.178M</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>7.717M</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr"/>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>0.323M</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>-0.142M</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>0.099M</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr"/>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>6.406M</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr"/>
+      <c r="F445" t="inlineStr"/>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr"/>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>-0.959M</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr"/>
+      <c r="F446" t="inlineStr"/>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>-0.416M</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr"/>
+      <c r="F447" t="inlineStr"/>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>0.041M</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>4.195%</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr"/>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr"/>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>4.535%</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr"/>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>02:00 PM</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>FOMC Minutes</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr"/>
+      <c r="D451" t="inlineStr"/>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Consumer Credit ChangeNOV</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr"/>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>$12.5B</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr"/>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Used Car Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr"/>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr"/>
+      <c r="F453" t="inlineStr"/>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr"/>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr"/>
+      <c r="C455" t="inlineStr"/>
+      <c r="D455" t="inlineStr"/>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr"/>
+      <c r="G455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr"/>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr"/>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Challenger Job CutsDEC</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr"/>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>57.727K</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr"/>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJAN/04</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr"/>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr"/>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsDEC/28</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr"/>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>1844K</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr"/>
+      <c r="F459" t="inlineStr"/>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>223.25K</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr"/>
+      <c r="F460" t="inlineStr"/>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Fed Harker Speech</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="inlineStr"/>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoMNOV</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr"/>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr"/>
+      <c r="D463" t="inlineStr"/>
+      <c r="E463" t="inlineStr"/>
+      <c r="F463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr"/>
+      <c r="D464" t="inlineStr"/>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr"/>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr"/>
+      <c r="D465" t="inlineStr"/>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr"/>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr"/>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr"/>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr"/>
+      <c r="D467" t="inlineStr"/>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>12:40 PM</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr"/>
+      <c r="F469" t="inlineStr"/>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Fed Schmid Speech</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr"/>
+      <c r="D470" t="inlineStr"/>
+      <c r="E470" t="inlineStr"/>
+      <c r="F470" t="inlineStr"/>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>01:35 PM</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Fed Bowman Speech</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr"/>
+      <c r="D471" t="inlineStr"/>
+      <c r="E471" t="inlineStr"/>
+      <c r="F471" t="inlineStr"/>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJAN/08</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr"/>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr"/>
+      <c r="F472" t="inlineStr"/>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Friday January 10 2025</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr"/>
+      <c r="C473" t="inlineStr"/>
+      <c r="D473" t="inlineStr"/>
+      <c r="E473" t="inlineStr"/>
+      <c r="F473" t="inlineStr"/>
+      <c r="G473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Non Farm PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr"/>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>200K</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr"/>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings MoMDEC</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings YoY</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr"/>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Participation RateDEC</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr"/>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr"/>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>62.8%</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Average Weekly HoursDEC</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr"/>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Government PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr"/>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>33K</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr"/>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Manufacturing PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr"/>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>22K</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr"/>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Nonfarm Payrolls PrivateDEC</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr"/>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>U-6 Unemployment Rate</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr"/>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr"/>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr"/>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr"/>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr"/>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr"/>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr"/>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions PrelJAN</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr"/>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr"/>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr"/>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr"/>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr"/>
+      <c r="D489" t="inlineStr"/>
+      <c r="E489" t="inlineStr"/>
+      <c r="F489" t="inlineStr"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr"/>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr"/>
+      <c r="F490" t="inlineStr"/>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr"/>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr"/>
+      <c r="F491" t="inlineStr"/>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Saturday January 11 2025</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr"/>
+      <c r="C492" t="inlineStr"/>
+      <c r="D492" t="inlineStr"/>
+      <c r="E492" t="inlineStr"/>
+      <c r="F492" t="inlineStr"/>
+      <c r="G492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="inlineStr"/>
+      <c r="E493" t="inlineStr"/>
+      <c r="F493" t="inlineStr"/>
+      <c r="G493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr"/>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsDEC</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr"/>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr"/>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr"/>
+      <c r="D496" t="inlineStr"/>
+      <c r="E496" t="inlineStr"/>
+      <c r="F496" t="inlineStr"/>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr"/>
+      <c r="D497" t="inlineStr"/>
+      <c r="E497" t="inlineStr"/>
+      <c r="F497" t="inlineStr"/>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornDEC</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr"/>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr"/>
+      <c r="F498" t="inlineStr"/>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>0.342B</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr"/>
+      <c r="F499" t="inlineStr"/>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr"/>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr"/>
+      <c r="F500" t="inlineStr"/>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>02:00 PM</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementDEC</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr"/>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>$-367B</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr"/>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr"/>
+      <c r="C502" t="inlineStr"/>
+      <c r="D502" t="inlineStr"/>
+      <c r="E502" t="inlineStr"/>
+      <c r="F502" t="inlineStr"/>
+      <c r="G502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr"/>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr"/>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Core PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr"/>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr"/>
+      <c r="F504" t="inlineStr"/>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Core PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr"/>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr"/>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>PPIDEC</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr"/>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>146.493</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr"/>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr"/>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr"/>
+      <c r="F507" t="inlineStr"/>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr"/>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr"/>
+      <c r="F508" t="inlineStr"/>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr"/>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr"/>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/11</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr"/>
+      <c r="D510" t="inlineStr"/>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr"/>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>10:05 AM</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr"/>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" t="inlineStr"/>
+      <c r="G511" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G511"/>
+  <dimension ref="A1:G625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9895,10 +9895,8 @@
       <c r="D400" t="inlineStr"/>
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="inlineStr"/>
-      <c r="G400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="401">
@@ -9916,10 +9914,8 @@
       <c r="D401" t="inlineStr"/>
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr"/>
-      <c r="G401" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G401" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="402">
@@ -9950,10 +9946,8 @@
       <c r="D403" t="inlineStr"/>
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="inlineStr"/>
-      <c r="G403" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G403" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -9984,10 +9978,8 @@
       <c r="D405" t="inlineStr"/>
       <c r="E405" t="inlineStr"/>
       <c r="F405" t="inlineStr"/>
-      <c r="G405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G405" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="406">
@@ -10017,10 +10009,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="407">
@@ -10050,10 +10040,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="G407" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="408">
@@ -10083,10 +10071,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G408" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G408" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="409">
@@ -10112,10 +10098,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="410">
@@ -10137,10 +10121,8 @@
         </is>
       </c>
       <c r="F410" t="inlineStr"/>
-      <c r="G410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="411">
@@ -10162,10 +10144,8 @@
       </c>
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="inlineStr"/>
-      <c r="G411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="412">
@@ -10187,10 +10167,8 @@
       </c>
       <c r="E412" t="inlineStr"/>
       <c r="F412" t="inlineStr"/>
-      <c r="G412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -10212,10 +10190,8 @@
       </c>
       <c r="E413" t="inlineStr"/>
       <c r="F413" t="inlineStr"/>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -10241,10 +10217,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="G414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -10275,10 +10249,8 @@
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr"/>
       <c r="F416" t="inlineStr"/>
-      <c r="G416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -10308,10 +10280,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="G417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -10337,10 +10307,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="G418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G418" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -10366,10 +10334,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -10391,10 +10357,8 @@
       </c>
       <c r="E420" t="inlineStr"/>
       <c r="F420" t="inlineStr"/>
-      <c r="G420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="421">
@@ -10424,10 +10388,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G421" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G421" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -10457,10 +10419,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G422" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -10486,10 +10446,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="424">
@@ -10515,10 +10473,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="425">
@@ -10544,10 +10500,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="426">
@@ -10573,10 +10527,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="G426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="427">
@@ -10602,10 +10554,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="G427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="428">
@@ -10627,10 +10577,8 @@
       </c>
       <c r="E428" t="inlineStr"/>
       <c r="F428" t="inlineStr"/>
-      <c r="G428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -10652,10 +10600,8 @@
       </c>
       <c r="E429" t="inlineStr"/>
       <c r="F429" t="inlineStr"/>
-      <c r="G429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -10677,10 +10623,8 @@
       </c>
       <c r="E430" t="inlineStr"/>
       <c r="F430" t="inlineStr"/>
-      <c r="G430" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G430" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="431">
@@ -10698,10 +10642,8 @@
       </c>
       <c r="E431" t="inlineStr"/>
       <c r="F431" t="inlineStr"/>
-      <c r="G431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -10736,10 +10678,8 @@
       </c>
       <c r="E433" t="inlineStr"/>
       <c r="F433" t="inlineStr"/>
-      <c r="G433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="434">
@@ -10757,10 +10697,8 @@
       <c r="D434" t="inlineStr"/>
       <c r="E434" t="inlineStr"/>
       <c r="F434" t="inlineStr"/>
-      <c r="G434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="435">
@@ -10778,10 +10716,8 @@
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr"/>
       <c r="F435" t="inlineStr"/>
-      <c r="G435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -10799,10 +10735,8 @@
       <c r="D436" t="inlineStr"/>
       <c r="E436" t="inlineStr"/>
       <c r="F436" t="inlineStr"/>
-      <c r="G436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -10820,10 +10754,8 @@
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr"/>
       <c r="F437" t="inlineStr"/>
-      <c r="G437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -10853,10 +10785,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="G438" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G438" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="439">
@@ -10874,10 +10804,8 @@
       <c r="D439" t="inlineStr"/>
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr"/>
-      <c r="G439" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G439" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="440">
@@ -10899,10 +10827,8 @@
       </c>
       <c r="E440" t="inlineStr"/>
       <c r="F440" t="inlineStr"/>
-      <c r="G440" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G440" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="441">
@@ -10924,10 +10850,8 @@
       </c>
       <c r="E441" t="inlineStr"/>
       <c r="F441" t="inlineStr"/>
-      <c r="G441" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G441" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="442">
@@ -10949,10 +10873,8 @@
       </c>
       <c r="E442" t="inlineStr"/>
       <c r="F442" t="inlineStr"/>
-      <c r="G442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -10974,10 +10896,8 @@
       </c>
       <c r="E443" t="inlineStr"/>
       <c r="F443" t="inlineStr"/>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -10999,10 +10919,8 @@
       </c>
       <c r="E444" t="inlineStr"/>
       <c r="F444" t="inlineStr"/>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="445">
@@ -11024,10 +10942,8 @@
       </c>
       <c r="E445" t="inlineStr"/>
       <c r="F445" t="inlineStr"/>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -11049,10 +10965,8 @@
       </c>
       <c r="E446" t="inlineStr"/>
       <c r="F446" t="inlineStr"/>
-      <c r="G446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="447">
@@ -11074,10 +10988,8 @@
       </c>
       <c r="E447" t="inlineStr"/>
       <c r="F447" t="inlineStr"/>
-      <c r="G447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -11099,10 +11011,8 @@
       </c>
       <c r="E448" t="inlineStr"/>
       <c r="F448" t="inlineStr"/>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="449">
@@ -11124,10 +11034,8 @@
       </c>
       <c r="E449" t="inlineStr"/>
       <c r="F449" t="inlineStr"/>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="450">
@@ -11149,10 +11057,8 @@
       </c>
       <c r="E450" t="inlineStr"/>
       <c r="F450" t="inlineStr"/>
-      <c r="G450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="451">
@@ -11170,10 +11076,8 @@
       <c r="D451" t="inlineStr"/>
       <c r="E451" t="inlineStr"/>
       <c r="F451" t="inlineStr"/>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G451" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -11203,10 +11107,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="G452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -11224,10 +11126,8 @@
       </c>
       <c r="E453" t="inlineStr"/>
       <c r="F453" t="inlineStr"/>
-      <c r="G453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -11245,10 +11145,8 @@
       </c>
       <c r="E454" t="inlineStr"/>
       <c r="F454" t="inlineStr"/>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -11287,10 +11185,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -11316,10 +11212,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -11345,10 +11239,8 @@
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G458" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="459">
@@ -11370,10 +11262,8 @@
       </c>
       <c r="E459" t="inlineStr"/>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="460">
@@ -11395,10 +11285,8 @@
       </c>
       <c r="E460" t="inlineStr"/>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="461">
@@ -11416,10 +11304,8 @@
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G461" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="462">
@@ -11449,10 +11335,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="463">
@@ -11470,10 +11354,8 @@
       <c r="D463" t="inlineStr"/>
       <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="464">
@@ -11495,10 +11377,8 @@
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -11516,10 +11396,8 @@
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr"/>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="466">
@@ -11537,10 +11415,8 @@
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr"/>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="467">
@@ -11558,10 +11434,8 @@
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr"/>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="468">
@@ -11579,10 +11453,8 @@
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="469">
@@ -11600,10 +11472,8 @@
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr"/>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G469" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="470">
@@ -11621,10 +11491,8 @@
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G470" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="471">
@@ -11642,10 +11510,8 @@
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr"/>
       <c r="F471" t="inlineStr"/>
-      <c r="G471" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G471" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="472">
@@ -11667,10 +11533,8 @@
       </c>
       <c r="E472" t="inlineStr"/>
       <c r="F472" t="inlineStr"/>
-      <c r="G472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -11713,10 +11577,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="G474" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G474" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -11746,10 +11608,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G475" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -11779,10 +11639,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G476" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G476" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="477">
@@ -11812,10 +11670,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="G477" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G477" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="478">
@@ -11841,10 +11697,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="G478" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G478" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="479">
@@ -11874,10 +11728,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="G479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -11903,10 +11755,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="G480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="481">
@@ -11932,10 +11782,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="G481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="482">
@@ -11965,10 +11813,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="G482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="483">
@@ -11994,10 +11840,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="484">
@@ -12027,10 +11871,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G484" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -12056,10 +11898,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -12085,10 +11925,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="G486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -12114,10 +11952,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="488">
@@ -12143,10 +11979,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="489">
@@ -12164,10 +11998,8 @@
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr"/>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="490">
@@ -12189,10 +12021,8 @@
       </c>
       <c r="E490" t="inlineStr"/>
       <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -12214,10 +12044,8 @@
       </c>
       <c r="E491" t="inlineStr"/>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="492">
@@ -12282,10 +12110,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="G495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -12303,10 +12129,8 @@
       <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr"/>
       <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -12324,10 +12148,8 @@
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr"/>
       <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -12349,10 +12171,8 @@
       </c>
       <c r="E498" t="inlineStr"/>
       <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -12374,10 +12194,8 @@
       </c>
       <c r="E499" t="inlineStr"/>
       <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -12399,10 +12217,8 @@
       </c>
       <c r="E500" t="inlineStr"/>
       <c r="F500" t="inlineStr"/>
-      <c r="G500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -12424,10 +12240,8 @@
       </c>
       <c r="E501" t="inlineStr"/>
       <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G501" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="502">
@@ -12466,10 +12280,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G503" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G503" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="504">
@@ -12491,10 +12303,8 @@
       </c>
       <c r="E504" t="inlineStr"/>
       <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G504" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="505">
@@ -12520,10 +12330,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="506">
@@ -12549,10 +12357,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="507">
@@ -12574,10 +12380,8 @@
       </c>
       <c r="E507" t="inlineStr"/>
       <c r="F507" t="inlineStr"/>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -12599,10 +12403,8 @@
       </c>
       <c r="E508" t="inlineStr"/>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="509">
@@ -12628,10 +12430,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -12649,10 +12449,8 @@
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr"/>
       <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="511">
@@ -12674,9 +12472,2841 @@
       </c>
       <c r="E511" t="inlineStr"/>
       <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr">
+      <c r="G511" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Saturday January 04 2025</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr"/>
+      <c r="C512" t="inlineStr"/>
+      <c r="D512" t="inlineStr"/>
+      <c r="E512" t="inlineStr"/>
+      <c r="F512" t="inlineStr"/>
+      <c r="G512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr"/>
+      <c r="D513" t="inlineStr"/>
+      <c r="E513" t="inlineStr"/>
+      <c r="F513" t="inlineStr"/>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Fed Kugler Speech</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr"/>
+      <c r="D514" t="inlineStr"/>
+      <c r="E514" t="inlineStr"/>
+      <c r="F514" t="inlineStr"/>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Sunday January 05 2025</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr"/>
+      <c r="C515" t="inlineStr"/>
+      <c r="D515" t="inlineStr"/>
+      <c r="E515" t="inlineStr"/>
+      <c r="F515" t="inlineStr"/>
+      <c r="G515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr"/>
+      <c r="D516" t="inlineStr"/>
+      <c r="E516" t="inlineStr"/>
+      <c r="F516" t="inlineStr"/>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Monday January 06 2025</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr"/>
+      <c r="C517" t="inlineStr"/>
+      <c r="D517" t="inlineStr"/>
+      <c r="E517" t="inlineStr"/>
+      <c r="F517" t="inlineStr"/>
+      <c r="G517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Fed Cook Speech</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr"/>
+      <c r="D518" t="inlineStr"/>
+      <c r="E518" t="inlineStr"/>
+      <c r="F518" t="inlineStr"/>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr"/>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>54.9</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>56.6</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr"/>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Factory Orders MoMNOV</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr"/>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Factory Orders ex TransportationNOV</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr"/>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr"/>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr"/>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr"/>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr"/>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr"/>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>4.135%</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" t="inlineStr"/>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr"/>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>4.117%</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr"/>
+      <c r="F526" t="inlineStr"/>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr"/>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Total Vehicle SalesDEC</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr"/>
+      <c r="C528" t="inlineStr"/>
+      <c r="D528" t="inlineStr"/>
+      <c r="E528" t="inlineStr"/>
+      <c r="F528" t="inlineStr"/>
+      <c r="G528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>08:00 AM</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr"/>
+      <c r="D529" t="inlineStr"/>
+      <c r="E529" t="inlineStr"/>
+      <c r="F529" t="inlineStr"/>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr"/>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>$-77.5B</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>$-70B</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>ExportsNOV</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr"/>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr"/>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>$264B</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>ImportsNOV</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr"/>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>$339.6B</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr"/>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>$334B</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/04</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr"/>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr"/>
+      <c r="F533" t="inlineStr"/>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>ISM Services PMIDEC</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr"/>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>JOLTs Job OpeningsNOV</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr"/>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>7.65M</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>7.69M</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>ISM Services Business ActivityDEC</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr"/>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr"/>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>ISM Services EmploymentDEC</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>ISM Services New OrdersDEC</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr"/>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr"/>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>ISM Services PricesDEC</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr"/>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>58.2</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr"/>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>JOLTs Job QuitsNOV</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr"/>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>3.326M</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr"/>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>3.31M</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>42-Day Bill Auction</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr"/>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>4.280%</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr"/>
+      <c r="F541" t="inlineStr"/>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>10-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr"/>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr"/>
+      <c r="F542" t="inlineStr"/>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr"/>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>-1.442M</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr"/>
+      <c r="F543" t="inlineStr"/>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr"/>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexDEC</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr"/>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr"/>
+      <c r="F544" t="inlineStr"/>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr"/>
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="inlineStr"/>
+      <c r="F545" t="inlineStr"/>
+      <c r="G545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr"/>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr"/>
+      <c r="F546" t="inlineStr"/>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr"/>
+      <c r="D547" t="inlineStr"/>
+      <c r="E547" t="inlineStr"/>
+      <c r="F547" t="inlineStr"/>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr"/>
+      <c r="D548" t="inlineStr"/>
+      <c r="E548" t="inlineStr"/>
+      <c r="F548" t="inlineStr"/>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr"/>
+      <c r="D549" t="inlineStr"/>
+      <c r="E549" t="inlineStr"/>
+      <c r="F549" t="inlineStr"/>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr"/>
+      <c r="D550" t="inlineStr"/>
+      <c r="E550" t="inlineStr"/>
+      <c r="F550" t="inlineStr"/>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>08:15 AM</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>ADP Employment ChangeDEC</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr"/>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>143K</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Fed Waller Speech</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr"/>
+      <c r="D552" t="inlineStr"/>
+      <c r="E552" t="inlineStr"/>
+      <c r="F552" t="inlineStr"/>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr"/>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>-1.178M</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr"/>
+      <c r="F553" t="inlineStr"/>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>7.717M</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr"/>
+      <c r="F554" t="inlineStr"/>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr"/>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>0.323M</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr"/>
+      <c r="F555" t="inlineStr"/>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr"/>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>-0.142M</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr"/>
+      <c r="F556" t="inlineStr"/>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr"/>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>0.099M</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr"/>
+      <c r="F557" t="inlineStr"/>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr"/>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>6.406M</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr"/>
+      <c r="F558" t="inlineStr"/>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr"/>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>-0.959M</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr"/>
+      <c r="F559" t="inlineStr"/>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr"/>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>-0.416M</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr"/>
+      <c r="F560" t="inlineStr"/>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr"/>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>0.041M</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr"/>
+      <c r="F561" t="inlineStr"/>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr"/>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>4.195%</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr"/>
+      <c r="F562" t="inlineStr"/>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr"/>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>4.535%</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr"/>
+      <c r="F563" t="inlineStr"/>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>02:00 PM</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>FOMC Minutes</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr"/>
+      <c r="D564" t="inlineStr"/>
+      <c r="E564" t="inlineStr"/>
+      <c r="F564" t="inlineStr"/>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Consumer Credit ChangeNOV</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr"/>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>$12.5B</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr"/>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Used Car Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr"/>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr"/>
+      <c r="F566" t="inlineStr"/>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr"/>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr"/>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr"/>
+      <c r="F567" t="inlineStr"/>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr"/>
+      <c r="C568" t="inlineStr"/>
+      <c r="D568" t="inlineStr"/>
+      <c r="E568" t="inlineStr"/>
+      <c r="F568" t="inlineStr"/>
+      <c r="G568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr"/>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr"/>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Challenger Job CutsDEC</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr"/>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>57.727K</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr"/>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJAN/04</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr"/>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr"/>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsDEC/28</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr"/>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>1844K</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr"/>
+      <c r="F572" t="inlineStr"/>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr"/>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>223.25K</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr"/>
+      <c r="F573" t="inlineStr"/>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Fed Harker Speech</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr"/>
+      <c r="D574" t="inlineStr"/>
+      <c r="E574" t="inlineStr"/>
+      <c r="F574" t="inlineStr"/>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoMNOV</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr"/>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr"/>
+      <c r="D576" t="inlineStr"/>
+      <c r="E576" t="inlineStr"/>
+      <c r="F576" t="inlineStr"/>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr"/>
+      <c r="D577" t="inlineStr"/>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr"/>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr"/>
+      <c r="D578" t="inlineStr"/>
+      <c r="E578" t="inlineStr"/>
+      <c r="F578" t="inlineStr"/>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr"/>
+      <c r="D579" t="inlineStr"/>
+      <c r="E579" t="inlineStr"/>
+      <c r="F579" t="inlineStr"/>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr"/>
+      <c r="D580" t="inlineStr"/>
+      <c r="E580" t="inlineStr"/>
+      <c r="F580" t="inlineStr"/>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr"/>
+      <c r="D581" t="inlineStr"/>
+      <c r="E581" t="inlineStr"/>
+      <c r="F581" t="inlineStr"/>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>12:40 PM</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr"/>
+      <c r="D582" t="inlineStr"/>
+      <c r="E582" t="inlineStr"/>
+      <c r="F582" t="inlineStr"/>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Fed Schmid Speech</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr"/>
+      <c r="D583" t="inlineStr"/>
+      <c r="E583" t="inlineStr"/>
+      <c r="F583" t="inlineStr"/>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>01:35 PM</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Fed Bowman Speech</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr"/>
+      <c r="D584" t="inlineStr"/>
+      <c r="E584" t="inlineStr"/>
+      <c r="F584" t="inlineStr"/>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJAN/08</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr"/>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr"/>
+      <c r="F585" t="inlineStr"/>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Friday January 10 2025</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr"/>
+      <c r="C586" t="inlineStr"/>
+      <c r="D586" t="inlineStr"/>
+      <c r="E586" t="inlineStr"/>
+      <c r="F586" t="inlineStr"/>
+      <c r="G586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Non Farm PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr"/>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>200K</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr"/>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings MoMDEC</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr"/>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings YoY</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr"/>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Participation RateDEC</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr"/>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr"/>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>62.8%</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Average Weekly HoursDEC</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr"/>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Government PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr"/>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>33K</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr"/>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Manufacturing PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr"/>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>22K</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr"/>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Nonfarm Payrolls PrivateDEC</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr"/>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>U-6 Unemployment Rate</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr"/>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr"/>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr"/>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr"/>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr"/>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr"/>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr"/>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions PrelJAN</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr"/>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr"/>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr"/>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr"/>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr"/>
+      <c r="D602" t="inlineStr"/>
+      <c r="E602" t="inlineStr"/>
+      <c r="F602" t="inlineStr"/>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr"/>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr"/>
+      <c r="F603" t="inlineStr"/>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr"/>
+      <c r="F604" t="inlineStr"/>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Saturday January 11 2025</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr"/>
+      <c r="C605" t="inlineStr"/>
+      <c r="D605" t="inlineStr"/>
+      <c r="E605" t="inlineStr"/>
+      <c r="F605" t="inlineStr"/>
+      <c r="G605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr"/>
+      <c r="C606" t="inlineStr"/>
+      <c r="D606" t="inlineStr"/>
+      <c r="E606" t="inlineStr"/>
+      <c r="F606" t="inlineStr"/>
+      <c r="G606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr"/>
+      <c r="C607" t="inlineStr"/>
+      <c r="D607" t="inlineStr"/>
+      <c r="E607" t="inlineStr"/>
+      <c r="F607" t="inlineStr"/>
+      <c r="G607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsDEC</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr"/>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr"/>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr"/>
+      <c r="D609" t="inlineStr"/>
+      <c r="E609" t="inlineStr"/>
+      <c r="F609" t="inlineStr"/>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr"/>
+      <c r="D610" t="inlineStr"/>
+      <c r="E610" t="inlineStr"/>
+      <c r="F610" t="inlineStr"/>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornDEC</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr"/>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr"/>
+      <c r="F611" t="inlineStr"/>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr"/>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>0.342B</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr"/>
+      <c r="F612" t="inlineStr"/>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr"/>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr"/>
+      <c r="F613" t="inlineStr"/>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>02:00 PM</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementDEC</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr"/>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>$-367B</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr"/>
+      <c r="F614" t="inlineStr"/>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr"/>
+      <c r="C615" t="inlineStr"/>
+      <c r="D615" t="inlineStr"/>
+      <c r="E615" t="inlineStr"/>
+      <c r="F615" t="inlineStr"/>
+      <c r="G615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr"/>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr"/>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Core PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr"/>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr"/>
+      <c r="F617" t="inlineStr"/>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Core PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr"/>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr"/>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>PPIDEC</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr"/>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>146.493</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr"/>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr"/>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr"/>
+      <c r="F620" t="inlineStr"/>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr"/>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr"/>
+      <c r="F621" t="inlineStr"/>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr"/>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr"/>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/11</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr"/>
+      <c r="D623" t="inlineStr"/>
+      <c r="E623" t="inlineStr"/>
+      <c r="F623" t="inlineStr"/>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>10:05 AM</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr"/>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr"/>
+      <c r="F624" t="inlineStr"/>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr"/>
+      <c r="D625" t="inlineStr"/>
+      <c r="E625" t="inlineStr"/>
+      <c r="F625" t="inlineStr"/>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G625"/>
+  <dimension ref="A1:G739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12504,10 +12504,8 @@
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr"/>
       <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G513" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="514">
@@ -12525,10 +12523,8 @@
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr"/>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G514" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="515">
@@ -12559,10 +12555,8 @@
       <c r="D516" t="inlineStr"/>
       <c r="E516" t="inlineStr"/>
       <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G516" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="517">
@@ -12593,10 +12587,8 @@
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr"/>
       <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G518" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="519">
@@ -12626,10 +12618,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="520">
@@ -12659,10 +12649,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="G520" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G520" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="521">
@@ -12692,10 +12680,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G521" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="522">
@@ -12721,10 +12707,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="523">
@@ -12746,10 +12730,8 @@
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -12771,10 +12753,8 @@
       </c>
       <c r="E524" t="inlineStr"/>
       <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="525">
@@ -12796,10 +12776,8 @@
       </c>
       <c r="E525" t="inlineStr"/>
       <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -12821,10 +12799,8 @@
       </c>
       <c r="E526" t="inlineStr"/>
       <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -12850,10 +12826,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="G527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="528">
@@ -12884,10 +12858,8 @@
       <c r="D529" t="inlineStr"/>
       <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G529" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="530">
@@ -12917,10 +12889,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="531">
@@ -12946,10 +12916,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="532">
@@ -12975,10 +12943,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="533">
@@ -13000,10 +12966,8 @@
       </c>
       <c r="E533" t="inlineStr"/>
       <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="534">
@@ -13033,10 +12997,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G534" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="535">
@@ -13066,10 +13028,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="G535" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G535" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -13095,10 +13055,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -13124,10 +13082,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="538">
@@ -13153,10 +13109,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="539">
@@ -13182,10 +13136,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -13211,10 +13163,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -13236,10 +13186,8 @@
       </c>
       <c r="E541" t="inlineStr"/>
       <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -13261,10 +13209,8 @@
       </c>
       <c r="E542" t="inlineStr"/>
       <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -13286,10 +13232,8 @@
       </c>
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G543" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="544">
@@ -13307,10 +13251,8 @@
       </c>
       <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -13345,10 +13287,8 @@
       </c>
       <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G546" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="547">
@@ -13366,10 +13306,8 @@
       <c r="D547" t="inlineStr"/>
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -13387,10 +13325,8 @@
       <c r="D548" t="inlineStr"/>
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -13408,10 +13344,8 @@
       <c r="D549" t="inlineStr"/>
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr"/>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -13429,10 +13363,8 @@
       <c r="D550" t="inlineStr"/>
       <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -13462,10 +13394,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G551" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="552">
@@ -13483,10 +13413,8 @@
       <c r="D552" t="inlineStr"/>
       <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G552" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="553">
@@ -13508,10 +13436,8 @@
       </c>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr"/>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G553" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="554">
@@ -13533,10 +13459,8 @@
       </c>
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G554" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="555">
@@ -13558,10 +13482,8 @@
       </c>
       <c r="E555" t="inlineStr"/>
       <c r="F555" t="inlineStr"/>
-      <c r="G555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="556">
@@ -13583,10 +13505,8 @@
       </c>
       <c r="E556" t="inlineStr"/>
       <c r="F556" t="inlineStr"/>
-      <c r="G556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="557">
@@ -13608,10 +13528,8 @@
       </c>
       <c r="E557" t="inlineStr"/>
       <c r="F557" t="inlineStr"/>
-      <c r="G557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="558">
@@ -13633,10 +13551,8 @@
       </c>
       <c r="E558" t="inlineStr"/>
       <c r="F558" t="inlineStr"/>
-      <c r="G558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="559">
@@ -13658,10 +13574,8 @@
       </c>
       <c r="E559" t="inlineStr"/>
       <c r="F559" t="inlineStr"/>
-      <c r="G559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="560">
@@ -13683,10 +13597,8 @@
       </c>
       <c r="E560" t="inlineStr"/>
       <c r="F560" t="inlineStr"/>
-      <c r="G560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="561">
@@ -13708,10 +13620,8 @@
       </c>
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
-      <c r="G561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -13733,10 +13643,8 @@
       </c>
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr"/>
-      <c r="G562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -13758,10 +13666,8 @@
       </c>
       <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -13779,10 +13685,8 @@
       <c r="D564" t="inlineStr"/>
       <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G564" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -13812,10 +13716,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="G565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -13833,10 +13735,8 @@
       </c>
       <c r="E566" t="inlineStr"/>
       <c r="F566" t="inlineStr"/>
-      <c r="G566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="567">
@@ -13854,10 +13754,8 @@
       </c>
       <c r="E567" t="inlineStr"/>
       <c r="F567" t="inlineStr"/>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -13896,10 +13794,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="G569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="570">
@@ -13925,10 +13821,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="G570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -13954,10 +13848,8 @@
         </is>
       </c>
       <c r="F571" t="inlineStr"/>
-      <c r="G571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G571" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="572">
@@ -13979,10 +13871,8 @@
       </c>
       <c r="E572" t="inlineStr"/>
       <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="573">
@@ -14004,10 +13894,8 @@
       </c>
       <c r="E573" t="inlineStr"/>
       <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="574">
@@ -14025,10 +13913,8 @@
       <c r="D574" t="inlineStr"/>
       <c r="E574" t="inlineStr"/>
       <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G574" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="575">
@@ -14058,10 +13944,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="G575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -14079,10 +13963,8 @@
       <c r="D576" t="inlineStr"/>
       <c r="E576" t="inlineStr"/>
       <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="577">
@@ -14104,10 +13986,8 @@
         </is>
       </c>
       <c r="F577" t="inlineStr"/>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="578">
@@ -14125,10 +14005,8 @@
       <c r="D578" t="inlineStr"/>
       <c r="E578" t="inlineStr"/>
       <c r="F578" t="inlineStr"/>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="579">
@@ -14146,10 +14024,8 @@
       <c r="D579" t="inlineStr"/>
       <c r="E579" t="inlineStr"/>
       <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="580">
@@ -14167,10 +14043,8 @@
       <c r="D580" t="inlineStr"/>
       <c r="E580" t="inlineStr"/>
       <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G580" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="581">
@@ -14188,10 +14062,8 @@
       <c r="D581" t="inlineStr"/>
       <c r="E581" t="inlineStr"/>
       <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="582">
@@ -14209,10 +14081,8 @@
       <c r="D582" t="inlineStr"/>
       <c r="E582" t="inlineStr"/>
       <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G582" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="583">
@@ -14230,10 +14100,8 @@
       <c r="D583" t="inlineStr"/>
       <c r="E583" t="inlineStr"/>
       <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G583" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="584">
@@ -14251,10 +14119,8 @@
       <c r="D584" t="inlineStr"/>
       <c r="E584" t="inlineStr"/>
       <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="585">
@@ -14276,10 +14142,8 @@
       </c>
       <c r="E585" t="inlineStr"/>
       <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="586">
@@ -14322,10 +14186,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G587" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -14355,10 +14217,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G588" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -14388,10 +14248,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G589" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="590">
@@ -14421,10 +14279,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="G590" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G590" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="591">
@@ -14450,10 +14306,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G591" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="592">
@@ -14483,10 +14337,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="593">
@@ -14512,10 +14364,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="G593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="594">
@@ -14541,10 +14391,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="G594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="595">
@@ -14574,10 +14422,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="596">
@@ -14603,10 +14449,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="597">
@@ -14636,10 +14480,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G597" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -14665,10 +14507,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="599">
@@ -14694,10 +14534,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="600">
@@ -14723,10 +14561,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="G600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="601">
@@ -14752,10 +14588,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="602">
@@ -14773,10 +14607,8 @@
       <c r="D602" t="inlineStr"/>
       <c r="E602" t="inlineStr"/>
       <c r="F602" t="inlineStr"/>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="603">
@@ -14798,10 +14630,8 @@
       </c>
       <c r="E603" t="inlineStr"/>
       <c r="F603" t="inlineStr"/>
-      <c r="G603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="604">
@@ -14823,10 +14653,8 @@
       </c>
       <c r="E604" t="inlineStr"/>
       <c r="F604" t="inlineStr"/>
-      <c r="G604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="605">
@@ -14891,10 +14719,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="609">
@@ -14912,10 +14738,8 @@
       <c r="D609" t="inlineStr"/>
       <c r="E609" t="inlineStr"/>
       <c r="F609" t="inlineStr"/>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="610">
@@ -14933,10 +14757,8 @@
       <c r="D610" t="inlineStr"/>
       <c r="E610" t="inlineStr"/>
       <c r="F610" t="inlineStr"/>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="611">
@@ -14958,10 +14780,8 @@
       </c>
       <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -14983,10 +14803,8 @@
       </c>
       <c r="E612" t="inlineStr"/>
       <c r="F612" t="inlineStr"/>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -15008,10 +14826,8 @@
       </c>
       <c r="E613" t="inlineStr"/>
       <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -15033,10 +14849,8 @@
       </c>
       <c r="E614" t="inlineStr"/>
       <c r="F614" t="inlineStr"/>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G614" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="615">
@@ -15075,10 +14889,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G616" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -15100,10 +14912,8 @@
       </c>
       <c r="E617" t="inlineStr"/>
       <c r="F617" t="inlineStr"/>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G617" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="618">
@@ -15129,10 +14939,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -15158,10 +14966,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -15183,10 +14989,8 @@
       </c>
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -15208,10 +15012,8 @@
       </c>
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -15237,10 +15039,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -15258,10 +15058,8 @@
       <c r="D623" t="inlineStr"/>
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -15283,10 +15081,8 @@
       </c>
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -15304,7 +15100,2839 @@
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr">
+      <c r="G625" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Saturday January 04 2025</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr"/>
+      <c r="C626" t="inlineStr"/>
+      <c r="D626" t="inlineStr"/>
+      <c r="E626" t="inlineStr"/>
+      <c r="F626" t="inlineStr"/>
+      <c r="G626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr"/>
+      <c r="D627" t="inlineStr"/>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr"/>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Fed Kugler Speech</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr"/>
+      <c r="D628" t="inlineStr"/>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr"/>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Sunday January 05 2025</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr"/>
+      <c r="C629" t="inlineStr"/>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr"/>
+      <c r="G629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr"/>
+      <c r="D630" t="inlineStr"/>
+      <c r="E630" t="inlineStr"/>
+      <c r="F630" t="inlineStr"/>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Monday January 06 2025</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr"/>
+      <c r="C631" t="inlineStr"/>
+      <c r="D631" t="inlineStr"/>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="inlineStr"/>
+      <c r="G631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Fed Cook Speech</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr"/>
+      <c r="D632" t="inlineStr"/>
+      <c r="E632" t="inlineStr"/>
+      <c r="F632" t="inlineStr"/>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr"/>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>54.9</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>56.6</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalDEC</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr"/>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Factory Orders MoMNOV</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr"/>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Factory Orders ex TransportationNOV</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr"/>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr"/>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr"/>
+      <c r="D637" t="inlineStr"/>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr"/>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr"/>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr"/>
+      <c r="F638" t="inlineStr"/>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr"/>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>4.135%</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr"/>
+      <c r="F639" t="inlineStr"/>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr"/>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>4.117%</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr"/>
+      <c r="F640" t="inlineStr"/>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr"/>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Total Vehicle SalesDEC</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr"/>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr"/>
+      <c r="C642" t="inlineStr"/>
+      <c r="D642" t="inlineStr"/>
+      <c r="E642" t="inlineStr"/>
+      <c r="F642" t="inlineStr"/>
+      <c r="G642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>08:00 AM</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr"/>
+      <c r="D643" t="inlineStr"/>
+      <c r="E643" t="inlineStr"/>
+      <c r="F643" t="inlineStr"/>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr"/>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>$-77.5B</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>$-70B</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>ExportsNOV</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr"/>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr"/>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>$264B</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>ImportsNOV</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr"/>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>$339.6B</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr"/>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>$334B</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/04</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr"/>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr"/>
+      <c r="F647" t="inlineStr"/>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>ISM Services PMIDEC</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr"/>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>JOLTs Job OpeningsNOV</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr"/>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>7.65M</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>7.69M</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>ISM Services Business ActivityDEC</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr"/>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>ISM Services EmploymentDEC</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr"/>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr"/>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>ISM Services New OrdersDEC</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr"/>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>ISM Services PricesDEC</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr"/>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>58.2</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr"/>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>JOLTs Job QuitsNOV</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr"/>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>3.326M</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr"/>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>3.31M</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>42-Day Bill Auction</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>4.280%</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr"/>
+      <c r="F655" t="inlineStr"/>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>10-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>-1.442M</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr"/>
+      <c r="F657" t="inlineStr"/>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr"/>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexDEC</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr"/>
+      <c r="F658" t="inlineStr"/>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr"/>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr"/>
+      <c r="E659" t="inlineStr"/>
+      <c r="F659" t="inlineStr"/>
+      <c r="G659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr"/>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr"/>
+      <c r="F660" t="inlineStr"/>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr"/>
+      <c r="E661" t="inlineStr"/>
+      <c r="F661" t="inlineStr"/>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr"/>
+      <c r="E662" t="inlineStr"/>
+      <c r="F662" t="inlineStr"/>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="inlineStr"/>
+      <c r="E663" t="inlineStr"/>
+      <c r="F663" t="inlineStr"/>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJAN/03</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr"/>
+      <c r="D664" t="inlineStr"/>
+      <c r="E664" t="inlineStr"/>
+      <c r="F664" t="inlineStr"/>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>08:15 AM</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>ADP Employment ChangeDEC</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr"/>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>143K</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Fed Waller Speech</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr"/>
+      <c r="D666" t="inlineStr"/>
+      <c r="E666" t="inlineStr"/>
+      <c r="F666" t="inlineStr"/>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>-1.178M</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr"/>
+      <c r="F667" t="inlineStr"/>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>7.717M</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr"/>
+      <c r="F668" t="inlineStr"/>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>0.323M</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr"/>
+      <c r="F669" t="inlineStr"/>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr"/>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>-0.142M</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr"/>
+      <c r="F670" t="inlineStr"/>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>0.099M</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr"/>
+      <c r="F671" t="inlineStr"/>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr"/>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>6.406M</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr"/>
+      <c r="F672" t="inlineStr"/>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr"/>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>-0.959M</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr"/>
+      <c r="F673" t="inlineStr"/>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr"/>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>-0.416M</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr"/>
+      <c r="F674" t="inlineStr"/>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr"/>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>0.041M</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr"/>
+      <c r="F675" t="inlineStr"/>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr"/>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>4.195%</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr"/>
+      <c r="F676" t="inlineStr"/>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr"/>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>4.535%</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr"/>
+      <c r="F677" t="inlineStr"/>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>02:00 PM</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>FOMC Minutes</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr"/>
+      <c r="D678" t="inlineStr"/>
+      <c r="E678" t="inlineStr"/>
+      <c r="F678" t="inlineStr"/>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Consumer Credit ChangeNOV</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr"/>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>$12.5B</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr"/>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Used Car Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr"/>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr"/>
+      <c r="F680" t="inlineStr"/>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr"/>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr"/>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr"/>
+      <c r="F681" t="inlineStr"/>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr"/>
+      <c r="C682" t="inlineStr"/>
+      <c r="D682" t="inlineStr"/>
+      <c r="E682" t="inlineStr"/>
+      <c r="F682" t="inlineStr"/>
+      <c r="G682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr"/>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr"/>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Challenger Job CutsDEC</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr"/>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>57.727K</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr"/>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJAN/04</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr"/>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr"/>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsDEC/28</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr"/>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>1844K</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr"/>
+      <c r="F686" t="inlineStr"/>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr"/>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>223.25K</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr"/>
+      <c r="F687" t="inlineStr"/>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Fed Harker Speech</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr"/>
+      <c r="D688" t="inlineStr"/>
+      <c r="E688" t="inlineStr"/>
+      <c r="F688" t="inlineStr"/>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoMNOV</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr"/>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr"/>
+      <c r="D690" t="inlineStr"/>
+      <c r="E690" t="inlineStr"/>
+      <c r="F690" t="inlineStr"/>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr"/>
+      <c r="D691" t="inlineStr"/>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr"/>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr"/>
+      <c r="D692" t="inlineStr"/>
+      <c r="E692" t="inlineStr"/>
+      <c r="F692" t="inlineStr"/>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr"/>
+      <c r="D693" t="inlineStr"/>
+      <c r="E693" t="inlineStr"/>
+      <c r="F693" t="inlineStr"/>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr"/>
+      <c r="D694" t="inlineStr"/>
+      <c r="E694" t="inlineStr"/>
+      <c r="F694" t="inlineStr"/>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr"/>
+      <c r="D695" t="inlineStr"/>
+      <c r="E695" t="inlineStr"/>
+      <c r="F695" t="inlineStr"/>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>12:40 PM</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr"/>
+      <c r="D696" t="inlineStr"/>
+      <c r="E696" t="inlineStr"/>
+      <c r="F696" t="inlineStr"/>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Fed Schmid Speech</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr"/>
+      <c r="D697" t="inlineStr"/>
+      <c r="E697" t="inlineStr"/>
+      <c r="F697" t="inlineStr"/>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>01:35 PM</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Fed Bowman Speech</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr"/>
+      <c r="D698" t="inlineStr"/>
+      <c r="E698" t="inlineStr"/>
+      <c r="F698" t="inlineStr"/>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJAN/08</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr"/>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr"/>
+      <c r="F699" t="inlineStr"/>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>Friday January 10 2025</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr"/>
+      <c r="C700" t="inlineStr"/>
+      <c r="D700" t="inlineStr"/>
+      <c r="E700" t="inlineStr"/>
+      <c r="F700" t="inlineStr"/>
+      <c r="G700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Non Farm PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr"/>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>200K</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr"/>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings MoMDEC</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr"/>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings YoY</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr"/>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Participation RateDEC</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr"/>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr"/>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>62.8%</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Average Weekly HoursDEC</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr"/>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Government PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr"/>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>33K</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr"/>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Manufacturing PayrollsDEC</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>22K</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr"/>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Nonfarm Payrolls PrivateDEC</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr"/>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>U-6 Unemployment Rate</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr"/>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr"/>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr"/>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr"/>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr"/>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr"/>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr"/>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions PrelJAN</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr"/>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr"/>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations PrelJAN</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr"/>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr"/>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr"/>
+      <c r="D716" t="inlineStr"/>
+      <c r="E716" t="inlineStr"/>
+      <c r="F716" t="inlineStr"/>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr"/>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr"/>
+      <c r="F717" t="inlineStr"/>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr"/>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr"/>
+      <c r="F718" t="inlineStr"/>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>Saturday January 11 2025</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr"/>
+      <c r="C719" t="inlineStr"/>
+      <c r="D719" t="inlineStr"/>
+      <c r="E719" t="inlineStr"/>
+      <c r="F719" t="inlineStr"/>
+      <c r="G719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr"/>
+      <c r="C720" t="inlineStr"/>
+      <c r="D720" t="inlineStr"/>
+      <c r="E720" t="inlineStr"/>
+      <c r="F720" t="inlineStr"/>
+      <c r="G720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr"/>
+      <c r="C721" t="inlineStr"/>
+      <c r="D721" t="inlineStr"/>
+      <c r="E721" t="inlineStr"/>
+      <c r="F721" t="inlineStr"/>
+      <c r="G721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsDEC</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr"/>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr"/>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr"/>
+      <c r="D723" t="inlineStr"/>
+      <c r="E723" t="inlineStr"/>
+      <c r="F723" t="inlineStr"/>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr"/>
+      <c r="D724" t="inlineStr"/>
+      <c r="E724" t="inlineStr"/>
+      <c r="F724" t="inlineStr"/>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornDEC</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr"/>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr"/>
+      <c r="F725" t="inlineStr"/>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>0.342B</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr"/>
+      <c r="F726" t="inlineStr"/>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr"/>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr"/>
+      <c r="F727" t="inlineStr"/>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>02:00 PM</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementDEC</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr"/>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>$-367B</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr"/>
+      <c r="F728" t="inlineStr"/>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr"/>
+      <c r="C729" t="inlineStr"/>
+      <c r="D729" t="inlineStr"/>
+      <c r="E729" t="inlineStr"/>
+      <c r="F729" t="inlineStr"/>
+      <c r="G729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr"/>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr"/>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Core PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr"/>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr"/>
+      <c r="F731" t="inlineStr"/>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Core PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr"/>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr"/>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>PPIDEC</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr"/>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>146.493</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr"/>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr"/>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr"/>
+      <c r="F734" t="inlineStr"/>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr"/>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr"/>
+      <c r="F735" t="inlineStr"/>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr"/>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr"/>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/11</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr"/>
+      <c r="D737" t="inlineStr"/>
+      <c r="E737" t="inlineStr"/>
+      <c r="F737" t="inlineStr"/>
+      <c r="G737" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>10:05 AM</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr"/>
+      <c r="F738" t="inlineStr"/>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr"/>
+      <c r="D739" t="inlineStr"/>
+      <c r="E739" t="inlineStr"/>
+      <c r="F739" t="inlineStr"/>
+      <c r="G739" t="inlineStr">
         <is>
           <t>2</t>
         </is>
